--- a/medicine/Psychotrope/Château_Brane-Cantenac/Château_Brane-Cantenac.xlsx
+++ b/medicine/Psychotrope/Château_Brane-Cantenac/Château_Brane-Cantenac.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Ch%C3%A2teau_Brane-Cantenac</t>
+          <t>Château_Brane-Cantenac</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Le château Brane-Cantenac est un domaine viticole de 75 hectares situé à Cantenac en Gironde. Son vin, en AOC margaux, est classé deuxième grand cru dans la classification officielle des vins de Bordeaux de 1855.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Ch%C3%A2teau_Brane-Cantenac</t>
+          <t>Château_Brane-Cantenac</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,7 +524,9 @@
           <t>Histoire du domaine</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Appelé du nom de ses propriétaires successifs, Hostein au XVIIe puis Gorce au XVIIIe siècle, ce grand domaine viticole produit bien avant le classement de 1855 l’un des vins les plus réputés du Médoc[réf. nécessaire]. Sa cotation le place alors tout à fait en tête des grands crus.
 Fin XVIIIe, on cite le vin de Gorce juste après celui de Latour à Pauillac : « le plus proche du précédent, se vend un quart de moins et est reconnu particulièrement pour son bouquet exceptionnel »[réf. nécessaire].
@@ -534,7 +548,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Ch%C3%A2teau_Brane-Cantenac</t>
+          <t>Château_Brane-Cantenac</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -552,9 +566,11 @@
           <t>Terroir</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'encépagement du vignoble exploité sur 75 hectares est constitué à 65 % de cabernet-sauvignon, 30 % de merlot et 5 % de cabernet franc[1]. Depuis 2007, la carménère, un vieux cépage local, a été replanté.
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'encépagement du vignoble exploité sur 75 hectares est constitué à 65 % de cabernet-sauvignon, 30 % de merlot et 5 % de cabernet franc. Depuis 2007, la carménère, un vieux cépage local, a été replanté.
 </t>
         </is>
       </c>
@@ -565,7 +581,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Ch%C3%A2teau_Brane-Cantenac</t>
+          <t>Château_Brane-Cantenac</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -583,7 +599,9 @@
           <t>Vins</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Le domaine produit trois différents vins :
 Le grand vin Château Brane Cantenac est produit à environ 150 000 bouteilles annuelles. Il est issu d'un assemblage classique de cabernet sauvignon, merlot et cabernet Franc, vinifié traditionnellement après une vendange manuelle, un tri optique, une fermentation malolactique en barrique. Il est élevé 18 mois en fûts de chêne français à 70 % neufs. Il est en majoritairement issu de la croupe graveleuse de Brane.
